--- a/output/coef-variation.xlsx
+++ b/output/coef-variation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunnigan_s\Desktop\gtm-chla-20yr\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4914ECC0-AD01-44E0-8E1F-51BFF6062B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755FF3D-145F-4C72-8C3E-8EE28EAE986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sd-variability" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>GTMPINUT</t>
-  </si>
-  <si>
-    <t>JXTR17</t>
   </si>
   <si>
     <t>GTMSSNUT</t>
   </si>
   <si>
-    <t>JXTR21</t>
-  </si>
-  <si>
     <t>GTMFMNUT</t>
-  </si>
-  <si>
-    <t>MRT</t>
   </si>
   <si>
     <t>GTMPCNUT</t>
@@ -144,14 +135,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> variability extracted from timeseries of seven continuous long-term monitoring stations in the Guana Tolomato Matanzas estuary. The mean value of each of these (dimensionless) components is 1, so these standard deviations are equivalent to coefficients of variation.</t>
+      <t xml:space="preserve"> variability extracted from timeseries of four continuous long-term monitoring stations in the Guana Tolomato Matanzas estuary. The mean value of each of these (dimensionless) components is 1, so these standard deviations are equivalent to coefficients of variation.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +791,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1158,11 +1149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E10"/>
+      <selection activeCell="B3" sqref="B3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,122 +1165,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.22986622817727301</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.33814369164241997</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.35279904524575501</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.153822957781865</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.27223442673146803</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.34354928662665901</v>
+      <c r="C5" s="8">
+        <v>0.22697139601584801</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.21807797474028501</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.34310883846603302</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.22697139601584801</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.21807797474028501</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.34310883846603302</v>
+      <c r="C6" s="8">
+        <v>0.244779328654679</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.33040600907308798</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.41218231610995198</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
-        <v>0.14168214520754899</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.36796468671482402</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.31406839154938998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.244779328654679</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.33040600907308798</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.41218231610995198</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.18125910114759899</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.35275101437700102</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.44907122836262198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="C7" s="10">
         <v>0.35208568590836797</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D7" s="10">
         <v>0.40551139506516998</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E7" s="10">
         <v>0.50992249607402396</v>
       </c>
     </row>
